--- a/optimazation_transient_MRI_xgb.xlsx
+++ b/optimazation_transient_MRI_xgb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB0412-A2B0-4823-84B8-C8983B4A4FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A048D8F9-C707-4182-BB26-0229194B5A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +363,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -524,8 +530,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,7 +891,7 @@
   <dimension ref="A1:G577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,26 +1223,26 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0.49166666666666597</v>
       </c>
-      <c r="B15">
-        <v>0.01</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>0.7</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="B15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <v>100</v>
       </c>
     </row>

--- a/optimazation_transient_MRI_xgb.xlsx
+++ b/optimazation_transient_MRI_xgb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A048D8F9-C707-4182-BB26-0229194B5A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BFD333-0F75-4FA5-A552-BFA00BA8F00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>n est</t>
+  </si>
+  <si>
+    <t>used in the paper</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,9 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -888,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +911,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.50694444444444398</v>
       </c>
@@ -947,7 +957,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.50555555555555498</v>
       </c>
@@ -970,30 +980,33 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>0.50555555555555498</v>
       </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.50555555555555498</v>
       </c>
@@ -1016,7 +1029,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.50555555555555498</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.50416666666666599</v>
       </c>
@@ -1062,7 +1075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.50416666666666599</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.50416666666666599</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.49722222222222201</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.49722222222222201</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.49305555555555503</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.49305555555555503</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.49305555555555503</v>
       </c>
@@ -1223,7 +1236,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.49166666666666597</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.49166666666666597</v>
       </c>
